--- a/templates/NHWA_Module_7.xlsx
+++ b/templates/NHWA_Module_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4941205-DCD6-4FBE-92B3-0F41CA9E394C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21863F6-27FF-4BF6-86A0-2655857AE776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="A50Yby5oilM+1qmLMQkkfr/ragISSf29ArtF+IgGwQFq2AJMGQVVufcKXOC8/kzRIkUAF7GyjP85m5gIPqINRA==" workbookSaltValue="WQmVUQWnZeh8FXj/AguQKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2325,9 +2325,6 @@
     <t/>
   </si>
   <si>
-    <t>Health Workforce Spending and Remuneration</t>
-  </si>
-  <si>
     <t>Value (USD)</t>
   </si>
   <si>
@@ -2404,6 +2401,9 @@
   </si>
   <si>
     <t>Existence of national/subnational policies or standards on public sector wage ceiling (7-06)</t>
+  </si>
+  <si>
+    <t>Health Workforce Spending and Remuneration - Report data in USD (annual)</t>
   </si>
 </sst>
 </file>
@@ -2743,17 +2743,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2762,8 +2756,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2794,10 +2798,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3318,16 +3318,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3358,16 +3358,16 @@
       </c>
     </row>
     <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="42" t="s">
+        <v>792</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3543,18 +3543,18 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>764</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42" t="s">
-        <v>767</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41" t="s">
+        <v>766</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="N6" s="11"/>
@@ -3562,8 +3562,8 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
       <c r="Y6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3590,17 +3590,17 @@
       </c>
     </row>
     <row r="7" spans="2:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>775</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>776</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>777</v>
       </c>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
@@ -3640,10 +3640,10 @@
       <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>778</v>
-      </c>
-      <c r="D8" s="43"/>
+      <c r="C8" s="44" t="s">
+        <v>777</v>
+      </c>
+      <c r="D8" s="44"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -3723,17 +3723,17 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>764</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42" t="s">
-        <v>773</v>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41" t="s">
+        <v>772</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
@@ -3770,12 +3770,12 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="N11" s="13"/>
@@ -3814,12 +3814,12 @@
       <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>774</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="C12" s="44" t="s">
+        <v>773</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="34"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -3897,23 +3897,23 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>764</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>780</v>
-      </c>
-      <c r="E14" s="40" t="s">
+      <c r="D14" s="45" t="s">
+        <v>779</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>768</v>
+      </c>
+      <c r="F14" s="45" t="s">
         <v>769</v>
       </c>
-      <c r="F14" s="40" t="s">
-        <v>770</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>768</v>
+      <c r="G14" s="45" t="s">
+        <v>767</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -3950,12 +3950,12 @@
       </c>
     </row>
     <row r="15" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="N15" s="13"/>
@@ -3995,7 +3995,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
@@ -4070,21 +4070,21 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>764</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="45" t="s">
-        <v>771</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>779</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>768</v>
+      <c r="D18" s="41"/>
+      <c r="E18" s="43" t="s">
+        <v>770</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>778</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>767</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -4114,12 +4114,12 @@
       </c>
     </row>
     <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
       <c r="Y19" s="3" t="s">
         <v>24</v>
       </c>
@@ -4149,10 +4149,10 @@
       <c r="B20" s="15">
         <v>1</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>789</v>
-      </c>
-      <c r="D20" s="43"/>
+      <c r="C20" s="44" t="s">
+        <v>788</v>
+      </c>
+      <c r="D20" s="44"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -10196,17 +10196,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rfIzbpVmg2BLFcIeq97u+Atlkx1p2QfjPdcy7JGh5tuwpbZirA4G9L6Habe6hgPxFAG80qEEEV3h7a8qojXPXw==" saltValue="Z9PMkZoS40HlYV9Z7QlBDg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TwG6rLNvclq09WGphzKWo9C/fvyVwYkFRYkOqjZxdw/Er1Se7rqua4L6GgSiOeKUV7H0YkHL+fp+vNNoY4/1Ow==" saltValue="mRMInFJcEs77GPD62WEUFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="I4 Q8:R16 H8:P15" name="Range1"/>
     <protectedRange sqref="E10:F12 D9:G9 D16:G17 E20:G20 G12 D12 E6:G8 D13:G13 D21:G21" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B18:B19"/>
@@ -10214,17 +10214,17 @@
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="C18:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C10:F11"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:G16 E20:G20 E8:G8 G12" xr:uid="{5F4DADF7-F108-464E-9154-3112A7401E2D}">
@@ -10293,32 +10293,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
-        <v>766</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
+      <c r="B2" s="42" t="s">
+        <v>792</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -10379,53 +10379,53 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>790</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="57" t="s">
+        <v>789</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="29" t="s">
+        <v>774</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>775</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>776</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>782</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>791</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="56" t="s">
-        <v>790</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-    </row>
-    <row r="9" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="29" t="s">
-        <v>775</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>776</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>777</v>
-      </c>
-      <c r="G9" s="23" t="s">
+      <c r="H9" s="23" t="s">
         <v>783</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="I9" s="23" t="s">
         <v>784</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -10447,7 +10447,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36"/>
@@ -10461,7 +10461,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36"/>
@@ -10528,32 +10528,32 @@
     </row>
     <row r="17" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="41" t="s">
         <v>764</v>
       </c>
-      <c r="D18" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>781</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="D18" s="41" t="s">
+        <v>771</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>780</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
       <c r="N19" s="10">
         <v>1</v>
       </c>
@@ -10563,36 +10563,36 @@
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D20" s="18"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
       <c r="N20" s="3" t="str">
         <f>IF(N19=2,"true",IF(N19=3,"false",""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K2E/8TgagsvbIEzLtWxT0THZeqoyOFRyXLiuVZdqm/Trn4VtGBsiwwvC5oqWlWePReqXa7lU0Z3DRCiEtzBduQ==" saltValue="Tb9ZldtiO3hxI9W9WWbhzA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7Bgupu66qTToepNixDdaEw2rBvqSIiqK1QfDfZrLNIOFMff8NweElUNi30gZRaPFtO5FNQ5wBIoMENDixWPjnQ==" saltValue="aFicK0/AlDHgBm3GULB9mQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D20" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="11">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:I19"/>
-    <mergeCell ref="E20:I20"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:F8"/>
     <mergeCell ref="G7:I8"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:I19"/>
+    <mergeCell ref="E20:I20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:I16" xr:uid="{580C84A7-724C-41A8-BC3C-1E615B3DFFCC}">

--- a/templates/NHWA_Module_7.xlsx
+++ b/templates/NHWA_Module_7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20351"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21863F6-27FF-4BF6-86A0-2655857AE776}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD704B7-F45E-467D-9F81-82283445BD3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="A50Yby5oilM+1qmLMQkkfr/ragISSf29ArtF+IgGwQFq2AJMGQVVufcKXOC8/kzRIkUAF7GyjP85m5gIPqINRA==" workbookSaltValue="WQmVUQWnZeh8FXj/AguQKQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="795">
   <si>
     <t xml:space="preserve">NATIONAL  HEALTH WORKFORCE ACCOUNTS DATA </t>
   </si>
@@ -2404,6 +2404,12 @@
   </si>
   <si>
     <t>Health Workforce Spending and Remuneration - Report data in USD (annual)</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -2743,19 +2749,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2765,9 +2758,18 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2798,6 +2800,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3318,16 +3324,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3358,16 +3364,16 @@
       </c>
     </row>
     <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3543,18 +3549,18 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="44" t="s">
         <v>764</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44" t="s">
         <v>766</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="N6" s="11"/>
@@ -3562,8 +3568,8 @@
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
       <c r="Y6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3590,9 +3596,9 @@
       </c>
     </row>
     <row r="7" spans="2:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="32" t="s">
         <v>774</v>
       </c>
@@ -3640,10 +3646,10 @@
       <c r="B8" s="15">
         <v>1</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="40" t="s">
         <v>777</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
@@ -3723,16 +3729,16 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="44" t="s">
         <v>764</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44" t="s">
         <v>772</v>
       </c>
       <c r="H10" s="14"/>
@@ -3770,12 +3776,12 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="N11" s="13"/>
@@ -3814,12 +3820,12 @@
       <c r="B12" s="15">
         <v>1</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="40" t="s">
         <v>773</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="34"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -3897,22 +3903,22 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="44" t="s">
         <v>764</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="41" t="s">
         <v>779</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="41" t="s">
         <v>768</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="41" t="s">
         <v>769</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="41" t="s">
         <v>767</v>
       </c>
       <c r="H14" s="14"/>
@@ -3950,12 +3956,12 @@
       </c>
     </row>
     <row r="15" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="N15" s="13"/>
@@ -4070,20 +4076,20 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="44" t="s">
         <v>764</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="45" t="s">
         <v>770</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="45" t="s">
         <v>778</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="45" t="s">
         <v>767</v>
       </c>
       <c r="H18" s="14"/>
@@ -4114,12 +4120,12 @@
       </c>
     </row>
     <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
       <c r="Y19" s="3" t="s">
         <v>24</v>
       </c>
@@ -4149,10 +4155,10 @@
       <c r="B20" s="15">
         <v>1</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="40" t="s">
         <v>788</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -10202,11 +10208,11 @@
     <protectedRange sqref="E10:F12 D9:G9 D16:G17 E20:G20 G12 D12 E6:G8 D13:G13 D21:G21" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="23">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B18:B19"/>
@@ -10220,11 +10226,11 @@
     <mergeCell ref="C10:F11"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16:G16 E20:G20 E8:G8 G12" xr:uid="{5F4DADF7-F108-464E-9154-3112A7401E2D}">
@@ -10293,32 +10299,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>792</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -10379,36 +10385,36 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>781</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="50" t="s">
         <v>790</v>
       </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="57" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="56" t="s">
         <v>789</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
     </row>
     <row r="8" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
     </row>
     <row r="9" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="29" t="s">
         <v>774</v>
       </c>
@@ -10443,8 +10449,8 @@
       <c r="I10" s="37"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
-        <v>2</v>
+      <c r="B11" s="5" t="s">
+        <v>793</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>785</v>
@@ -10457,8 +10463,8 @@
       <c r="I11" s="36"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="5">
-        <v>3</v>
+      <c r="B12" s="5" t="s">
+        <v>794</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>786</v>
@@ -10472,7 +10478,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>5</v>
@@ -10486,7 +10492,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
@@ -10500,7 +10506,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
@@ -10514,7 +10520,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
@@ -10528,32 +10534,32 @@
     </row>
     <row r="17" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="44" t="s">
         <v>764</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="44" t="s">
         <v>771</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="44" t="s">
         <v>780</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
       <c r="N19" s="10">
         <v>1</v>
       </c>
@@ -10566,33 +10572,33 @@
         <v>791</v>
       </c>
       <c r="D20" s="18"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
       <c r="N20" s="3" t="str">
         <f>IF(N19=2,"true",IF(N19=3,"false",""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7Bgupu66qTToepNixDdaEw2rBvqSIiqK1QfDfZrLNIOFMff8NweElUNi30gZRaPFtO5FNQ5wBIoMENDixWPjnQ==" saltValue="aFicK0/AlDHgBm3GULB9mQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fIQJzYc0FFGd5YT3t60EnwUX6hDQbxRxi2J/qc9toiRjs7r9koFP6MtmxVQ90T/6angR+OrzYoXc0QztHVqNWw==" saltValue="i0Zy6tooO5K6gdaepp0iAA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D20" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:I19"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:F8"/>
     <mergeCell ref="G7:I8"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:I19"/>
-    <mergeCell ref="E20:I20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:I16" xr:uid="{580C84A7-724C-41A8-BC3C-1E615B3DFFCC}">
